--- a/static/documentos/RED DOCENTIC 2017.xlsx
+++ b/static/documentos/RED DOCENTIC 2017.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="DOCENTIC" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
